--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/15/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/15/seed1/result_data_KNN.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.414</v>
+        <v>-20.726</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.28</v>
+        <v>-22.291</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -542,15 +542,15 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.55</v>
+        <v>16.451</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.932</v>
+        <v>-21.304</v>
       </c>
       <c r="B7" t="n">
-        <v>5.768</v>
+        <v>5.872</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>16.248</v>
+        <v>16.344</v>
       </c>
     </row>
     <row r="9">
@@ -635,13 +635,13 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.388</v>
+        <v>4.786</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.2</v>
+        <v>-7.393000000000001</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -655,7 +655,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.01</v>
+        <v>-13.072</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.036</v>
+        <v>-11.818</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.638</v>
+        <v>5.086999999999999</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.474</v>
+        <v>-21.632</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.404</v>
+        <v>-13.107</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>16.352</v>
+        <v>16.661</v>
       </c>
     </row>
     <row r="19">
@@ -757,21 +757,21 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-13.018</v>
+        <v>-12.505</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.546</v>
+        <v>16.891</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.03</v>
+        <v>-21.433</v>
       </c>
       <c r="B20" t="n">
-        <v>6.148</v>
+        <v>6.25</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.184</v>
+        <v>16.408</v>
       </c>
     </row>
     <row r="21">
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.48</v>
+        <v>8.074</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.646</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="22">
@@ -805,13 +805,13 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>8.846</v>
+        <v>7.894</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.254</v>
+        <v>-12.787</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.120000000000001</v>
+        <v>-8.120999999999999</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.632000000000001</v>
+        <v>7.369000000000002</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>15.946</v>
+        <v>16.304</v>
       </c>
     </row>
     <row r="24">
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.862</v>
+        <v>16.731</v>
       </c>
     </row>
     <row r="25">
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.458</v>
+        <v>-21.687</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,16 +921,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.602</v>
+        <v>-21.286</v>
       </c>
       <c r="B29" t="n">
-        <v>4.715999999999999</v>
+        <v>6.180999999999999</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.004</v>
+        <v>-7.128</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.44</v>
+        <v>-21.486</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,13 +1009,13 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>7.81</v>
+        <v>7.821</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.828000000000001</v>
+        <v>-7.929</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.152</v>
+        <v>16.294</v>
       </c>
     </row>
     <row r="36">
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-13.256</v>
+        <v>-12.683</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.394</v>
+        <v>16.509</v>
       </c>
     </row>
     <row r="38">
@@ -1103,12 +1103,12 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>17.46</v>
+        <v>17.071</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.936</v>
+        <v>-20.486</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1137,7 +1137,7 @@
         <v>-8.720000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>16.418</v>
+        <v>16.597</v>
       </c>
     </row>
     <row r="42">
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>8.827999999999999</v>
+        <v>7.582999999999998</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1162,13 +1162,13 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>5.723999999999999</v>
+        <v>5.907000000000001</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.084</v>
+        <v>-8.145000000000001</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1179,7 +1179,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>4.896</v>
+        <v>5.171</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.869999999999999</v>
+        <v>5.048</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,19 +1210,19 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.676</v>
+        <v>-21.519</v>
       </c>
       <c r="B46" t="n">
-        <v>5.450000000000001</v>
+        <v>6.201000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.086</v>
+        <v>-13.323</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>16.692</v>
+        <v>16.723</v>
       </c>
     </row>
     <row r="47">
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.537999999999999</v>
+        <v>-7.797</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1281,10 +1281,10 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.901999999999999</v>
+        <v>5.167999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>-12.878</v>
+        <v>-13.097</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.1</v>
+        <v>-21.292</v>
       </c>
       <c r="B51" t="n">
-        <v>5.38</v>
+        <v>6.7</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-21.742</v>
+        <v>-21.561</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.956</v>
+        <v>-22.028</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1426,12 +1426,12 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.376</v>
+        <v>16.489</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.502</v>
+        <v>-22.248</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1457,10 +1457,10 @@
         <v>-13.33</v>
       </c>
       <c r="D60" t="n">
-        <v>-7.805999999999999</v>
+        <v>-8.178999999999998</v>
       </c>
       <c r="E60" t="n">
-        <v>16.566</v>
+        <v>16.591</v>
       </c>
     </row>
     <row r="61">
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-21.736</v>
+        <v>-21.937</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.608</v>
+        <v>-21.54</v>
       </c>
       <c r="B66" t="n">
-        <v>6.004</v>
+        <v>5.809000000000001</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.58</v>
+        <v>5.249</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1593,7 +1593,7 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.545999999999999</v>
+        <v>-6.900999999999999</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.118</v>
+        <v>-7.103</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.46</v>
+        <v>-19.95</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1678,15 +1678,15 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.837999999999999</v>
+        <v>-8.345000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>16.39</v>
+        <v>16.487</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-20.52</v>
+        <v>-21.061</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.398</v>
+        <v>16.457</v>
       </c>
     </row>
     <row r="77">
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>5.512</v>
+        <v>5.529999999999999</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.734</v>
+        <v>5.798</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1885,7 +1885,7 @@
         <v>-7.87</v>
       </c>
       <c r="E85" t="n">
-        <v>16.69</v>
+        <v>16.83</v>
       </c>
     </row>
     <row r="86">
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.640000000000001</v>
+        <v>-8.475</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1992,16 +1992,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-20.624</v>
+        <v>-20.898</v>
       </c>
       <c r="B92" t="n">
-        <v>7.164</v>
+        <v>6.153999999999999</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.843999999999999</v>
+        <v>-6.497</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-11.804</v>
+        <v>-11.719</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2080,10 +2080,10 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>5.191999999999999</v>
+        <v>6.188999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>-13.78</v>
+        <v>-13.247</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>16.324</v>
+        <v>16.406</v>
       </c>
     </row>
     <row r="99">
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-20.804</v>
+        <v>-21.526</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.068000000000001</v>
+        <v>-7.890000000000001</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
